--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="119">
   <si>
     <t>Profile</t>
   </si>
@@ -62,7 +62,7 @@
     <t>To Be Determined Codes#aneuploid-score</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
+    <t>dateTime</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -86,10 +86,10 @@
     <t>SNOMED CT#398192003</t>
   </si>
   <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, integerĵ</t>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
   </si>
   <si>
     <t>onconova-ecog-performance-status</t>
@@ -101,9 +101,6 @@
     <t>LOINC#89247-1</t>
   </si>
   <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
     <t>integerĵ</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>LOINC#81258-6</t>
   </si>
   <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
     <t>LOINC#82121-5</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
   </si>
   <si>
     <t>LOINC#97509-4</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
   </si>
   <si>
     <t>onconova-Karnofsky-performance-status</t>
@@ -677,10 +668,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -694,19 +685,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -715,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -732,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -767,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -776,7 +767,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -785,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -802,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -811,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -820,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -837,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -846,16 +837,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -872,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
@@ -881,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -890,7 +881,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -907,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>14</v>
@@ -916,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
@@ -925,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -942,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -951,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -960,7 +951,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -977,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -986,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
@@ -995,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1012,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -1021,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -1030,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1047,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -1056,16 +1047,16 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1082,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -1091,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -1100,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1117,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -1126,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
@@ -1135,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1152,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1161,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1170,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1187,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1196,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1222,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1231,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1257,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1266,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1275,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1292,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1301,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1310,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1327,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1336,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1345,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1362,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1371,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1397,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1406,7 +1397,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
@@ -1415,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1432,7 +1423,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>14</v>
@@ -1441,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
@@ -1450,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1467,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1476,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1485,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1502,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>14</v>
@@ -1511,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1520,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1537,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>14</v>
@@ -1546,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
@@ -1555,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1572,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1581,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1590,7 +1581,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1607,7 +1598,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>14</v>
@@ -1616,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1625,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1642,7 +1633,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>14</v>
@@ -1651,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1660,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1677,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>14</v>
@@ -1686,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1695,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1712,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1721,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1730,7 +1721,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1747,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -1756,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1765,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1779,10 +1770,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -1791,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1817,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>14</v>
@@ -1849,28 +1840,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1884,10 +1875,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1896,16 +1887,16 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1919,10 +1910,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1931,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1940,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1957,17 +1948,17 @@
         <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
       </c>
@@ -1975,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -1992,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2001,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2010,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2027,7 +2018,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2036,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
@@ -2045,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2062,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -2071,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2080,7 +2071,7 @@
         <v>14</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2097,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2106,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
@@ -2115,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2132,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>14</v>
@@ -2141,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2150,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2167,7 +2158,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2176,7 +2167,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2185,7 +2176,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2199,10 +2190,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>13</v>
@@ -2211,7 +2202,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2237,7 +2228,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2269,10 +2260,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2281,7 +2272,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
@@ -2290,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2307,7 +2298,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2339,10 +2330,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2351,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2360,7 +2351,7 @@
         <v>24</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2374,10 +2365,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2386,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
@@ -2395,7 +2386,7 @@
         <v>24</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2409,10 +2400,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2421,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
@@ -2430,7 +2421,7 @@
         <v>24</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2444,10 +2435,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>14</v>
@@ -2456,7 +2447,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
@@ -2465,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2479,10 +2470,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2494,13 +2485,13 @@
         <v>14</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2514,10 +2505,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>13</v>
@@ -2526,7 +2517,7 @@
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
@@ -2552,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2584,10 +2575,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>13</v>
@@ -2596,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2622,7 +2613,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2654,10 +2645,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>14</v>
@@ -2666,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2675,7 +2666,7 @@
         <v>24</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="123">
   <si>
     <t>Profile</t>
   </si>
@@ -206,6 +206,9 @@
     <t>To Be Determined Codes#variant-confidence-status</t>
   </si>
   <si>
+    <t>LOINC#LL4034-6</t>
+  </si>
+  <si>
     <t>NCI Thesaurus#C709</t>
   </si>
   <si>
@@ -213,6 +216,15 @@
   </si>
   <si>
     <t>stringĵ</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#rna-hgvs</t>
+  </si>
+  <si>
+    <t>NCI Thesaurus#C165600</t>
+  </si>
+  <si>
+    <t>LOINC#81303-0</t>
   </si>
   <si>
     <t>onconova-homologous-recombination-deficiency</t>
@@ -502,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1721,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1756,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1770,28 +1782,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1808,17 +1820,17 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1840,28 +1852,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1875,10 +1887,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1887,16 +1899,16 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1910,28 +1922,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1948,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>14</v>
@@ -1957,7 +1969,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -1966,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -1980,28 +1992,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2015,10 +2027,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2027,16 +2039,16 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2050,10 +2062,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -2062,16 +2074,16 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2088,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2106,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2123,7 +2135,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>14</v>
@@ -2141,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2158,7 +2170,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2176,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2190,28 +2202,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2228,17 +2240,17 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2260,28 +2272,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2298,7 +2310,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2307,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2316,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2330,28 +2342,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2365,10 +2377,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2377,16 +2389,16 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2400,28 +2412,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2435,10 +2447,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>14</v>
@@ -2447,16 +2459,16 @@
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2470,28 +2482,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>24</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2505,28 +2517,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2540,10 +2552,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2552,16 +2564,16 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2575,28 +2587,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2610,28 +2622,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2645,36 +2657,176 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s" s="2">
+      <c r="B64" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="F62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s" s="2">
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H66" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="I62" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K62" t="s" s="2">
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -311,7 +311,7 @@
     <t>onconova-serous-tumor-marker-level-category</t>
   </si>
   <si>
-    <t>Serum Tumor Marker Level Category</t>
+    <t>TNM Serum Tumor Marker Level Category</t>
   </si>
   <si>
     <t>SNOMED CT#396701002</t>
@@ -377,7 +377,7 @@
     <t>onconova-venous-invasion-category</t>
   </si>
   <si>
-    <t>Venous Invasion Category</t>
+    <t>TNM Venous Invasion Category</t>
   </si>
   <si>
     <t>SNOMED CT#369732007</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="126">
   <si>
     <t>Profile</t>
   </si>
@@ -62,123 +62,132 @@
     <t>To Be Determined Codes#aneuploid-score</t>
   </si>
   <si>
-    <t>dateTime</t>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#conclusion-string</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>onconova-cancer-risk-assessment</t>
+  </si>
+  <si>
+    <t>Cancer Risk Assessment Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-risk-assessment-methods (required)</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>onconova-comorbidities</t>
+  </si>
+  <si>
+    <t>Comorbidities Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#398192003</t>
+  </si>
+  <si>
+    <t>onconova-ecog-performance-status</t>
+  </si>
+  <si>
+    <t>ECOG Performance Status Profile</t>
+  </si>
+  <si>
+    <t>LOINC#89247-1</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>onconova-genomic-variant</t>
+  </si>
+  <si>
+    <t>Genomic Variant Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>LOINC#69548-6</t>
+  </si>
+  <si>
+    <t>LOINC#48018-6</t>
+  </si>
+  <si>
+    <t>LOINC#48001-2</t>
+  </si>
+  <si>
+    <t>LOINC#62374-4</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>LOINC#48004-6</t>
+  </si>
+  <si>
+    <t>LOINC#81290-9</t>
+  </si>
+  <si>
+    <t>LOINC#81291-7</t>
+  </si>
+  <si>
+    <t>LOINC#48013-7</t>
+  </si>
+  <si>
+    <t>LOINC#51958-7</t>
+  </si>
+  <si>
+    <t>LOINC#81254-5</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>LOINC#81302-2</t>
+  </si>
+  <si>
+    <t>LOINC#81301-4</t>
+  </si>
+  <si>
+    <t>LOINC#92822-6</t>
+  </si>
+  <si>
+    <t>LOINC#69547-8</t>
+  </si>
+  <si>
+    <t>LOINC#69551-0</t>
+  </si>
+  <si>
+    <t>LOINC#48019-4</t>
+  </si>
+  <si>
+    <t>LOINC#48002-0</t>
+  </si>
+  <si>
+    <t>LOINC#81258-6</t>
+  </si>
+  <si>
+    <t>LOINC#82121-5</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>To Be Determined Codes#conclusion-string</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>onconova-comorbidities</t>
-  </si>
-  <si>
-    <t>Comorbidities Profile</t>
-  </si>
-  <si>
-    <t>SNOMED CT#398192003</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>onconova-ecog-performance-status</t>
-  </si>
-  <si>
-    <t>ECOG Performance Status Profile</t>
-  </si>
-  <si>
-    <t>LOINC#89247-1</t>
-  </si>
-  <si>
-    <t>integerĵ</t>
-  </si>
-  <si>
-    <t>onconova-genomic-variant</t>
-  </si>
-  <si>
-    <t>Genomic Variant Profile</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>LOINC#69548-6</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>LOINC#48018-6</t>
-  </si>
-  <si>
-    <t>LOINC#48001-2</t>
-  </si>
-  <si>
-    <t>LOINC#62374-4</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>LOINC#48004-6</t>
-  </si>
-  <si>
-    <t>LOINC#81290-9</t>
-  </si>
-  <si>
-    <t>LOINC#81291-7</t>
-  </si>
-  <si>
-    <t>LOINC#48013-7</t>
-  </si>
-  <si>
-    <t>LOINC#51958-7</t>
-  </si>
-  <si>
-    <t>LOINC#81254-5</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>LOINC#81302-2</t>
-  </si>
-  <si>
-    <t>LOINC#81301-4</t>
-  </si>
-  <si>
-    <t>LOINC#92822-6</t>
-  </si>
-  <si>
-    <t>LOINC#69547-8</t>
-  </si>
-  <si>
-    <t>LOINC#69551-0</t>
-  </si>
-  <si>
-    <t>LOINC#48019-4</t>
-  </si>
-  <si>
-    <t>LOINC#48002-0</t>
-  </si>
-  <si>
-    <t>LOINC#81258-6</t>
-  </si>
-  <si>
-    <t>LOINC#82121-5</t>
-  </si>
-  <si>
     <t>LOINC#53034-5</t>
   </si>
   <si>
@@ -218,15 +227,15 @@
     <t>stringĵ</t>
   </si>
   <si>
+    <t>NCI Thesaurus#C165600</t>
+  </si>
+  <si>
+    <t>LOINC#81303-0</t>
+  </si>
+  <si>
     <t>To Be Determined Codes#rna-hgvs</t>
   </si>
   <si>
-    <t>NCI Thesaurus#C165600</t>
-  </si>
-  <si>
-    <t>LOINC#81303-0</t>
-  </si>
-  <si>
     <t>onconova-homologous-recombination-deficiency</t>
   </si>
   <si>
@@ -248,7 +257,7 @@
     <t>LOINC#97509-4</t>
   </si>
   <si>
-    <t>onconova-Karnofsky-performance-status</t>
+    <t>onconova-karnofsky-performance-status</t>
   </si>
   <si>
     <t>Karnofsky Performance Status Profile</t>
@@ -308,40 +317,49 @@
     <t>LOINC#81695-9</t>
   </si>
   <si>
-    <t>onconova-serous-tumor-marker-level-category</t>
-  </si>
-  <si>
-    <t>TNM Serum Tumor Marker Level Category</t>
+    <t>onconova-tnm-lymphatic-invasion-category</t>
+  </si>
+  <si>
+    <t>TNM Lymphatic Invasion Category Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#385414009</t>
+  </si>
+  <si>
+    <t>onconova-tnm-perineural-invasion-category</t>
+  </si>
+  <si>
+    <t>TNM Perineural Invasion Category Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#396394004</t>
+  </si>
+  <si>
+    <t>onconova-tnm-residual-tumor-category</t>
+  </si>
+  <si>
+    <t>TNM Residual Tumor Category Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#37161004</t>
+  </si>
+  <si>
+    <t>onconova-tnm-serum-tumor-marker-level-category</t>
+  </si>
+  <si>
+    <t>TNM Serum Tumor Marker Level Category Profile</t>
   </si>
   <si>
     <t>SNOMED CT#396701002</t>
   </si>
   <si>
-    <t>onconova-tnm-lymphatic-invasion-category</t>
-  </si>
-  <si>
-    <t>TNM Lymphatic Invasion Category</t>
-  </si>
-  <si>
-    <t>SNOMED CT#385414009</t>
-  </si>
-  <si>
-    <t>onconova-tnm-perineural-invasion-category</t>
-  </si>
-  <si>
-    <t>TNM Perineural Invasion Category</t>
-  </si>
-  <si>
-    <t>SNOMED CT#396394004</t>
-  </si>
-  <si>
-    <t>onconova-tnm-residual-tumor-category</t>
-  </si>
-  <si>
-    <t>TNM Residual Tumor Category</t>
-  </si>
-  <si>
-    <t>SNOMED CT#37161004</t>
+    <t>onconova-tnm-venous-invasion-category</t>
+  </si>
+  <si>
+    <t>TNM Venous Invasion Category Profile</t>
+  </si>
+  <si>
+    <t>SNOMED CT#369732007</t>
   </si>
   <si>
     <t>onconova-tumor-marker</t>
@@ -350,7 +368,7 @@
     <t>Tumor Marker Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-tumor-marker-test-vs|4.0.0 (extensible)</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-marker-tests (required)</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, Ratioĵ</t>
@@ -372,15 +390,6 @@
   </si>
   <si>
     <t>To Be Determined Codes#tumor-neoantigen-burden</t>
-  </si>
-  <si>
-    <t>onconova-venous-invasion-category</t>
-  </si>
-  <si>
-    <t>TNM Venous Invasion Category</t>
-  </si>
-  <si>
-    <t>SNOMED CT#369732007</t>
   </si>
 </sst>
 </file>
@@ -514,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -633,19 +642,19 @@
         <v>22</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>25</v>
@@ -680,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -697,28 +706,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -732,28 +741,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -770,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -779,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -788,7 +797,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -805,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -814,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -823,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -840,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -849,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -858,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -875,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
@@ -893,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -910,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>14</v>
@@ -919,16 +928,16 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -945,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -954,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -963,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -980,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -989,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
@@ -998,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1015,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -1024,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -1033,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1050,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -1059,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -1068,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1085,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -1103,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1120,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -1129,16 +1138,16 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1155,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1164,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1173,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1190,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1199,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1208,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1225,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1234,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1260,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1269,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1278,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1295,7 +1304,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1304,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1313,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1330,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1339,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1365,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1374,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1400,7 +1409,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1409,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
@@ -1418,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1435,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>14</v>
@@ -1444,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
@@ -1453,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1470,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1479,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1488,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1505,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>14</v>
@@ -1514,7 +1523,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1523,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1540,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>14</v>
@@ -1549,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
@@ -1558,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1575,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1584,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1593,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1610,7 +1619,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>14</v>
@@ -1619,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1628,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1645,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>14</v>
@@ -1654,7 +1663,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1680,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>14</v>
@@ -1689,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1698,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1715,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1724,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1733,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1750,7 +1759,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -1759,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1768,7 +1777,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1785,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>14</v>
@@ -1794,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1803,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1820,7 +1829,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>14</v>
@@ -1829,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -1838,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1855,7 +1864,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1864,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1873,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1890,7 +1899,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1899,16 +1908,16 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1922,13 +1931,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -1940,10 +1949,10 @@
         <v>14</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1957,28 +1966,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -1992,28 +2001,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2027,13 +2036,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="C44" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2045,10 +2054,10 @@
         <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2080,10 +2089,10 @@
         <v>14</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2097,10 +2106,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2109,16 +2118,16 @@
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2135,7 +2144,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>14</v>
@@ -2144,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2170,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2179,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2188,7 +2197,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2205,7 +2214,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2214,7 +2223,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2223,7 +2232,7 @@
         <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2240,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2249,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2275,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>14</v>
@@ -2284,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
@@ -2293,7 +2302,7 @@
         <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2310,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2319,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2328,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2342,13 +2351,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2360,10 +2369,10 @@
         <v>14</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2377,28 +2386,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2412,28 +2421,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>96</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2447,28 +2456,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2482,7 +2491,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>99</v>
@@ -2494,16 +2503,16 @@
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2535,10 +2544,10 @@
         <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2570,10 +2579,10 @@
         <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2605,10 +2614,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2628,22 +2637,22 @@
         <v>111</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2657,19 +2666,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2678,7 +2687,7 @@
         <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -2692,28 +2701,28 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -2727,10 +2736,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>13</v>
@@ -2739,7 +2748,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2748,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -2765,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2797,28 +2806,28 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -2827,6 +2836,41 @@
         <v>14</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="132">
   <si>
     <t>Profile</t>
   </si>
@@ -306,6 +306,24 @@
   </si>
   <si>
     <t>NCI Thesaurus#C18016</t>
+  </si>
+  <si>
+    <t>onconova-lymphoma-stage</t>
+  </si>
+  <si>
+    <t>Lymphoma Stage</t>
+  </si>
+  <si>
+    <t>SNOMED CT#385388004</t>
+  </si>
+  <si>
+    <t>SNOMED CT#106252000</t>
+  </si>
+  <si>
+    <t>SNOMED CT#277366005</t>
+  </si>
+  <si>
+    <t>SNOMED CT#260873006</t>
   </si>
   <si>
     <t>onconova-microsatellite-instability</t>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2462,7 +2480,7 @@
         <v>99</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2477,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2503,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>14</v>
@@ -2512,7 +2530,7 @@
         <v>14</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2526,28 +2544,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2561,10 +2579,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2573,16 +2591,16 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2596,19 +2614,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2617,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2631,10 +2649,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2643,16 +2661,16 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2666,10 +2684,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>14</v>
@@ -2678,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2701,28 +2719,28 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -2736,19 +2754,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2757,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -2771,10 +2789,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2783,16 +2801,16 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -2806,19 +2824,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -2827,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -2841,36 +2859,176 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s" s="2">
+      <c r="G67" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F67" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H67" t="s" s="2">
+      <c r="F69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="I67" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K67" t="s" s="2">
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="136">
   <si>
     <t>Profile</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>To Be Determined Codes#tumor-neoantigen-burden</t>
+  </si>
+  <si>
+    <t>onconova-vital-signs-panel</t>
+  </si>
+  <si>
+    <t>Vital Signs Panel Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>LOINC#85353-1, LOINC#85353-1</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3032,6 +3044,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
